--- a/PhanMem/Data/MayIn-LuongN3.xlsx
+++ b/PhanMem/Data/MayIn-LuongN3.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="19440" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="210" windowWidth="19440" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>STT</t>
   </si>
@@ -48,6 +49,12 @@
   </si>
   <si>
     <t>Công việc</t>
+  </si>
+  <si>
+    <t>CÔNG VIỆC</t>
+  </si>
+  <si>
+    <t>BÁO CÁO CÔNG VIỆC NHÓM 3</t>
   </si>
 </sst>
 </file>
@@ -2915,10 +2922,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -2971,18 +2978,10 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="19.28515625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75">
       <c r="A1" s="23" t="s">
@@ -3059,4 +3058,69 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75">
+      <c r="A1" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75">
+      <c r="A5" s="5"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>